--- a/xlsx/统计学_intext.xlsx
+++ b/xlsx/统计学_intext.xlsx
@@ -15,2121 +15,2118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="704">
   <si>
     <t>统计学</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>概率论</t>
+  </si>
+  <si>
+    <t>政策_政策_政治_统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E5%85%AC%E7%90%86</t>
+  </si>
+  <si>
+    <t>概率公理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E7%A9%BA%E9%96%93</t>
+  </si>
+  <si>
+    <t>概率空间</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B7%E6%9C%AC%E7%A9%BA%E9%97%B4</t>
+  </si>
+  <si>
+    <t>样本空间</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E4%BB%B6_(%E6%A6%82%E7%8E%87%E8%AE%BA)</t>
+  </si>
+  <si>
+    <t>事件 (概率论)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%8F%E6%9C%BA%E5%8F%98%E9%87%8F</t>
+  </si>
+  <si>
+    <t>随机变量</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E7%AB%8B%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>对立事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%88%86%E5%B8%83</t>
+  </si>
+  <si>
+    <t>联合分布</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%BC%98%E5%88%86%E5%B8%83</t>
+  </si>
+  <si>
+    <t>边缘分布</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%A1%E4%BB%B6%E6%A6%82%E7%8E%87</t>
+  </si>
+  <si>
+    <t>条件概率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E7%8D%A8%E7%AB%8B%E6%80%A7</t>
+  </si>
+  <si>
+    <t>统计独立性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E4%BB%B6%E7%8D%A8%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>条件独立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%A6%82%E7%8E%87%E5%85%AC%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>全概率公式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%95%B0%E5%AE%9A%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>大数定律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%8F%B6%E6%96%AF%E5%AE%9A%E7%90%86</t>
+  </si>
+  <si>
+    <t>贝叶斯定理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E4%B8%8D%E7%AD%89%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>布尔不等式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%B0%8F%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>文氏图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E5%BD%A2%E5%9C%96</t>
+  </si>
+  <si>
+    <t>树形图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>学科列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>自然科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%AD%A6%E7%A7%91</t>
+  </si>
+  <si>
+    <t>人文学科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>工商业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%95%B0%E6%8D%AE</t>
+  </si>
+  <si>
+    <t>大数据</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>资料科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%8F%E8%BF%B0%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>描述统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E6%93%9A</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>随机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E6%A8%A1%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>数学模型</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E8%AB%96%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>推论统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>数理统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%95%E9%AA%8C%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>试验设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E6%A8%A1%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>概率模型</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E5%88%86%E5%B8%83</t>
+  </si>
+  <si>
+    <t>概率分布</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%83%E5%89%8D5%E4%B8%96%E7%BA%AA</t>
+  </si>
+  <si>
+    <t>公元前5世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>肯迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A2%91%E7%8E%87%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>频率分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%A0%81%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>密码学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%85%8B%E5%88%86%E9%85%8D</t>
+  </si>
+  <si>
+    <t>常态分配</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%90%98%E5%9E%8B%E6%9B%B2%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>钟型曲线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>拉丁语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>意大利语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>政治家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99</t>
+  </si>
+  <si>
+    <t>资料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>中央政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>管理阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85</t>
+  </si>
+  <si>
+    <t>国际</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E7%8E%87</t>
+  </si>
+  <si>
+    <t>机率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>天文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E6%95%B0</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>商业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>教育学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%8D%AB%E7%94%9F%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>公共卫生学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%8E%B1%E5%85%B9%C2%B7%E5%B8%95%E6%96%AF%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>布莱兹·帕斯卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%C2%B7%E5%BE%B7%C2%B7%E8%B2%BB%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>皮埃尔·德·费马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%B0%8F%E4%BA%8C%E4%B9%98%E6%B3%95</t>
+  </si>
+  <si>
+    <t>最小二乘法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E9%AB%98%E6%96%AF</t>
+  </si>
+  <si>
+    <t>卡尔·弗里德里希·高斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B8%A2%E5%B0%BE%E8%8A%B1</t>
+  </si>
+  <si>
+    <t>鸢尾花</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%96%B9%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>直方图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E5%BA%8F%E5%88%97</t>
+  </si>
+  <si>
+    <t>时间序列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%A3%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>样本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%9D%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>平均数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E5%B7%AE</t>
+  </si>
+  <si>
+    <t>标准差</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%87%E8%A8%AD%E6%AA%A2%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>假设检定</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%85%B3%E6%80%A7</t>
+  </si>
+  <si>
+    <t>相关性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%B4%E6%AD%B8</t>
+  </si>
+  <si>
+    <t>回归</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E7%95%B0%E6%95%B8%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>变异数分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E6%8C%96%E6%8E%98</t>
+  </si>
+  <si>
+    <t>数据挖掘</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E8%A8%AD%E8%A8%88</t>
+  </si>
+  <si>
+    <t>实验设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E6%8F%90%E9%9C%8D%E7%88%BE%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>蒙提霍尔问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E6%9E%9C</t>
+  </si>
+  <si>
+    <t>因果</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%85%B3%E7%B3%BB%E6%95%B0</t>
+  </si>
+  <si>
+    <t>相关系数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%B7%AE</t>
+  </si>
+  <si>
+    <t>偏差</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%B7%AE%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>方差分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%87%E8%AF%B4</t>
+  </si>
+  <si>
+    <t>假说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%A1%91%E6%95%88%E5%BA%94</t>
+  </si>
+  <si>
+    <t>霍桑效应</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E7%8E%87</t>
+  </si>
+  <si>
+    <t>生产率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%AF%E5%B7%AE</t>
+  </si>
+  <si>
+    <t>误差</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E7%9B%B2</t>
+  </si>
+  <si>
+    <t>双盲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%97%85%E4%BE%8B%E5%B0%8D%E7%85%A7%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>病例对照研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E7%9A%84%E5%B0%BA%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>测量的尺度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%81%87%E8%AE%BE</t>
+  </si>
+  <si>
+    <t>零假设</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%9E%8B%E5%8F%8A%E7%AC%AC%E4%BA%8C%E5%9E%8B%E9%8C%AF%E8%AA%A4</t>
+  </si>
+  <si>
+    <t>第一型及第二型错误</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%AE%E4%BF%A1%E5%8C%BA%E9%97%B4</t>
+  </si>
+  <si>
+    <t>置信区间</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%8F%B6%E6%96%AF%E6%A6%82%E7%8E%87</t>
+  </si>
+  <si>
+    <t>贝叶斯概率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%BE%E8%91%97%E6%80%A7%E5%B7%AE%E5%BC%82</t>
+  </si>
+  <si>
+    <t>显着性差异</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%87%E8%AE%BE%E6%A3%80%E9%AA%8C</t>
+  </si>
+  <si>
+    <t>假设检验</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Student_t%E6%AA%A2%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>Student t检定</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%B9%E5%88%86%E9%85%8D</t>
+  </si>
+  <si>
+    <t>卡方分配</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E5%BD%92%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>回归分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%B0%94%E9%80%8A%E7%A7%AF%E7%9F%A9%E7%9B%B8%E5%85%B3%E7%B3%BB%E6%95%B0</t>
+  </si>
+  <si>
+    <t>皮尔逊积矩相关系数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%8C%B9%E6%9B%BC%E7%AD%89%E7%B4%9A%E7%9B%B8%E9%97%9C%E4%BF%82%E6%95%B8</t>
+  </si>
+  <si>
+    <t>史匹曼等级相关系数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%BB%9F%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>数理统计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E6%A8%A3</t>
+  </si>
+  <si>
+    <t>抽样</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E6%95%B0%E4%BC%B0%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>参数估计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%97%B4%E5%BA%8F%E5%88%97%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>时间序列分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E7%B1%BB%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>聚类分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%88%A5%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>判别分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%88%90%E5%88%86%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>主成分分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>农业科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88</t>
+  </si>
+  <si>
+    <t>生物统计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E6%8E%A1%E7%A4%A6</t>
+  </si>
+  <si>
+    <t>资料采矿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>统计物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>心理统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%BA%BF%E6%80%A7</t>
+  </si>
+  <si>
+    <t>非线性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%BD%91%E7%BB%9C</t>
+  </si>
+  <si>
+    <t>神经网络</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E7%BE%A9%E7%B7%9A%E6%80%A7%E6%A8%A1%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>广义线性模式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%BA%A7%E7%BA%BF%E6%80%A7%E6%A8%A1%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>等级线性模型</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8A%A9%E6%B3%95</t>
+  </si>
+  <si>
+    <t>自助法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E8%AA%A4%E7%94%A8</t>
+  </si>
+  <si>
+    <t>统计误用</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B0%8E%E8%A8%80%EF%BC%8C%E8%AF%A5%E6%AD%BB%E7%9A%84%E8%B0%8E%E8%A8%80%EF%BC%8C%E7%BB%9F%E8%AE%A1%E6%95%B0%E5%AD%97</t>
+  </si>
+  <si>
+    <t>谎言，该死的谎言，统计数字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E7%8E%87%E6%A6%82%E5%8C%96</t>
+  </si>
+  <si>
+    <t>轻率概化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%A1%E5%BD%A2%E7%BB%9F%E8%AE%A1%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>条形统计图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>代表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/DOI</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>统计学家列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%9B%BE%E5%BD%A2</t>
+  </si>
+  <si>
+    <t>统计图形</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>Template talk-统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E7%BB%AD%E6%A6%82%E7%8E%87</t>
+  </si>
+  <si>
+    <t>连续概率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%B8%AD%E8%B6%8B%E5%8A%BF</t>
+  </si>
+  <si>
+    <t>集中趋势</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%B9%B3%E5%9D%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>平方平均数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%97%E8%A1%93%E5%B9%B3%E5%9D%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>算术平均数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E4%BD%95%E5%B9%B3%E5%9D%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>几何平均数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E5%92%8C%E5%B9%B3%E5%9D%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>调和平均数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%97%E6%9C%AF-%E5%87%A0%E4%BD%95%E5%B9%B3%E5%9D%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>算术-几何平均数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E4%BD%95-%E8%B0%83%E5%92%8C%E5%B9%B3%E5%9D%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>几何-调和平均数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%B9%B3%E5%9D%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>希罗平均数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%9D%87%E6%95%B0%E4%B8%8D%E7%AD%89%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>平均数不等式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BD%8D%E6%95%B8</t>
+  </si>
+  <si>
+    <t>中位数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%97%E6%95%B0_(%E6%95%B0%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>众数 (数学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E6%95%A3%E7%A8%8B%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>离散程度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%B7%9D</t>
+  </si>
+  <si>
+    <t>全距</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E5%BC%82%E7%B3%BB%E6%95%B0</t>
+  </si>
+  <si>
+    <t>变异系数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%88%86%E4%BD%8D%E6%95%B0</t>
+  </si>
+  <si>
+    <t>百分位数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%88%86%E5%B7%AE</t>
+  </si>
+  <si>
+    <t>四分差</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%88%86%E4%BD%8D%E6%95%B0</t>
+  </si>
+  <si>
+    <t>四分位数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%B7%AE</t>
+  </si>
+  <si>
+    <t>方差</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E5%88%86%E6%95%B8</t>
+  </si>
+  <si>
+    <t>标准分数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E6%AF%94%E9%9B%AA%E5%A4%AB%E4%B8%8D%E7%AD%89%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>切比雪夫不等式</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Shape_of_the_distribution</t>
+  </si>
+  <si>
+    <t>en-Shape of the distribution</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>偏度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>峰度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E6%95%A3%E6%A6%82%E7%8E%87</t>
+  </si>
+  <si>
+    <t>离散概率</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Count_data</t>
+  </si>
+  <si>
+    <t>en-Count data</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Contingency_table</t>
+  </si>
+  <si>
+    <t>en-Contingency table</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Interval_estimation</t>
+  </si>
+  <si>
+    <t>en-Interval estimation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>元分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%B0%8F%E6%8E%A8%E8%AB%96</t>
+  </si>
+  <si>
+    <t>贝氏推论</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Replication_(statistics)</t>
+  </si>
+  <si>
+    <t>en-Replication (statistics)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Blocking_(statistics)</t>
+  </si>
+  <si>
+    <t>en-Blocking (statistics)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sample_size</t>
+  </si>
+  <si>
+    <t>en-Sample size</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%8A%9F%E6%95%88</t>
+  </si>
+  <si>
+    <t>统计功效</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%88%E5%BA%94%E5%80%BC</t>
+  </si>
+  <si>
+    <t>效应值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E8%AF%AF</t>
+  </si>
+  <si>
+    <t>标准误</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Alternative_hypothesis</t>
+  </si>
+  <si>
+    <t>en-Alternative hypothesis</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%9E%8B%E5%92%8C%E7%AC%AC%E4%BA%8C%E5%9E%8B%E8%AA%A4%E5%B7%AE</t>
+  </si>
+  <si>
+    <t>第一型和第二型误差</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E6%AA%A2%E5%AE%9A%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>统计检定力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%8F%B6%E6%96%AF%E6%8E%A8%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>贝叶斯推论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E4%BC%BC%E7%84%B6%E4%BC%B0%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>最大似然估计</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Minimum_distance_estimation</t>
+  </si>
+  <si>
+    <t>en-Minimum distance estimation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A9%E9%87%8F%E6%B3%95_(%E7%B5%B1%E8%A8%88%E5%AD%B8)</t>
+  </si>
+  <si>
+    <t>矩量法 (统计学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Z%E6%A3%80%E9%AA%8C</t>
+  </si>
+  <si>
+    <t>Z检验</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9Ft%E6%AA%A2%E9%A9%97</t>
+  </si>
+  <si>
+    <t>学生t检验</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/F%E6%A3%80%E9%AA%8C</t>
+  </si>
+  <si>
+    <t>F检验</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%B9%E6%A3%80%E9%AA%8C</t>
+  </si>
+  <si>
+    <t>卡方检验</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Wald_test</t>
+  </si>
+  <si>
+    <t>en-Wald test</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mann%E2%80%93Whitney_U_test</t>
+  </si>
+  <si>
+    <t>en-Mann–Whitney U test</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%AD%98%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>生存分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%AD%98%E5%87%BD%E6%95%B8</t>
+  </si>
+  <si>
+    <t>生存函数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%95%88%E7%8E%87</t>
+  </si>
+  <si>
+    <t>失效率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%85%B3</t>
+  </si>
+  <si>
+    <t>相关</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Confounding</t>
+  </si>
+  <si>
+    <t>en-Confounding</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%88%BE%E6%A3%AE%E7%A9%8D%E5%B7%AE%E7%9B%B8%E9%97%9C%E4%BF%82%E6%95%B8</t>
+  </si>
+  <si>
+    <t>皮尔森积差相关系数</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rank_correlation</t>
+  </si>
+  <si>
+    <t>en-Rank correlation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kendall_tau_rank_correlation_coefficient</t>
+  </si>
+  <si>
+    <t>en-Kendall tau rank correlation coefficient</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E6%80%A7%E5%9B%9E%E6%AD%B8</t>
+  </si>
+  <si>
+    <t>线性回归</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Linear_model</t>
+  </si>
+  <si>
+    <t>en-Linear model</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E7%B7%9A%E6%80%A7%E6%A8%A1%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>一般线性模式</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Analysis_of_covariance</t>
+  </si>
+  <si>
+    <t>en-Analysis of covariance</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nonlinear_regression</t>
+  </si>
+  <si>
+    <t>en-Nonlinear regression</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nonparametric_regression</t>
+  </si>
+  <si>
+    <t>en-Nonparametric regression</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Semiparametric_regression</t>
+  </si>
+  <si>
+    <t>en-Semiparametric regression</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Logit%E6%A8%A1%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>Logit模型</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A5%BC%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>饼图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%A8%99%E5%9C%96</t>
+  </si>
+  <si>
+    <t>双标图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%B1%E5%BD%A2%E5%9C%96</t>
+  </si>
+  <si>
+    <t>箱形图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E5%88%B6%E5%9C%96</t>
+  </si>
+  <si>
+    <t>管制图</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Forest_plot</t>
+  </si>
+  <si>
+    <t>en-Forest plot</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/QQ%E5%9C%96</t>
+  </si>
+  <si>
+    <t>QQ图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8B%E5%8A%BF%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>趋势图</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Scatter_plot</t>
+  </si>
+  <si>
+    <t>en-Scatter plot</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Stem-and-leaf_display</t>
+  </si>
+  <si>
+    <t>en-Stem-and-leaf display</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Radar_chart</t>
+  </si>
+  <si>
+    <t>en-Radar chart</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BA%E6%84%8F%E5%9C%B0%E5%9C%96</t>
+  </si>
+  <si>
+    <t>示意地图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E9%A2%86%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>数学领域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E5%AD%A6%E7%A7%91%E5%88%86%E7%B1%BB%E6%A0%87%E5%87%86</t>
+  </si>
+  <si>
+    <t>数学学科分类标准</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%AD%A6%E7%A7%91%E5%88%86%E7%B1%BB%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86/110</t>
+  </si>
+  <si>
+    <t>中国学科分类国家标准/110</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E9%80%BB%E8%BE%91</t>
+  </si>
+  <si>
+    <t>数理逻辑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%90%88%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>集合论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%95%B4%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>范畴论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%95%B0</t>
+  </si>
+  <si>
+    <t>代数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%AD%89%E4%BB%A3%E6%95%B0</t>
+  </si>
+  <si>
+    <t>初等代数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E6%80%A7%E4%BB%A3%E6%95%B0</t>
+  </si>
+  <si>
+    <t>线性代数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%87%8D%E7%BA%BF%E6%80%A7%E4%BB%A3%E6%95%B0</t>
+  </si>
+  <si>
+    <t>多重线性代数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E4%BB%A3%E6%95%B0</t>
+  </si>
+  <si>
+    <t>抽象代数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>数论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>数学分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%A7%AF%E5%88%86</t>
+  </si>
+  <si>
+    <t>微积分</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%88%86%E6%96%B9%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>微分方程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E6%80%81%E7%B3%BB%E7%BB%9F%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>动态系统理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E7%89%A9%E7%90%86</t>
+  </si>
+  <si>
+    <t>数学物理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E4%BD%95%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>几何学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Discrete_geometry</t>
+  </si>
+  <si>
+    <t>en-Discrete geometry</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%9E%90%E5%87%A0%E4%BD%95</t>
+  </si>
+  <si>
+    <t>解析几何</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%88%86%E5%87%A0%E4%BD%95</t>
+  </si>
+  <si>
+    <t>微分几何</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E5%B9%BE%E4%BD%95%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>有限几何学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%93%E6%89%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>拓扑学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E5%8A%9B%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>动力系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88</t>
+  </si>
+  <si>
+    <t>组合</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E5%87%BD%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>泛函分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>博弈论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>信息论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>图论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>数学教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%80%BC%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>数值分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BC%98%E5%8C%96</t>
+  </si>
+  <si>
+    <t>最优化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%8F%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>序理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>数学哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%A3%E5%91%B3%E6%95%B8%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>趣味数学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>计算理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E7%A4%BA%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>表示论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>三角学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%AF%E7%B2%B9%E6%95%B0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>纯粹数学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E6%95%B0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>应用数学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E6%95%A3%E6%95%B0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>离散数学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%95%B0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>计算数学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%95%B0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>元数学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF</t>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%A7%86%E5%8C%96</t>
+  </si>
+  <si>
+    <t>可视化</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Biological_data_visualization</t>
+  </si>
+  <si>
+    <t>en-Biological data visualization</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chemical_imaging</t>
+  </si>
+  <si>
+    <t>en-Chemical imaging</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%AA%E8%A1%8C%E7%BB%98%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>罪行绘图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E5%8F%AF%E8%A7%86%E5%8C%96</t>
+  </si>
+  <si>
+    <t>数据可视化</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Flow_visualization</t>
+  </si>
+  <si>
+    <t>en-Flow visualization</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%8F%AF%E8%A7%86%E5%8C%96</t>
+  </si>
+  <si>
+    <t>地理可视化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%8F%AF%E8%A7%86%E5%8C%96</t>
+  </si>
+  <si>
+    <t>信息可视化</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mathematical_diagram</t>
+  </si>
+  <si>
+    <t>en-Mathematical diagram</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E5%BD%B1%E5%83%8F</t>
+  </si>
+  <si>
+    <t>医学影像</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Molecular_graphics</t>
+  </si>
+  <si>
+    <t>en-Molecular graphics</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%8F%AF%E8%A7%86%E5%8C%96</t>
+  </si>
+  <si>
+    <t>科学可视化</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Software_visualization</t>
+  </si>
+  <si>
+    <t>en-Software visualization</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%88%B6%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>工程制图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%A8%E6%88%B7%E7%95%8C%E9%9D%A2%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>用户界面设计</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Visual_culture</t>
+  </si>
+  <si>
+    <t>en-Visual culture</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E4%BD%93%E6%B8%B2%E6%9F%93</t>
+  </si>
+  <si>
+    <t>立体渲染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%9C%96%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>统计图表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Diagram</t>
+  </si>
+  <si>
+    <t>en-Diagram</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%9C%96</t>
+  </si>
+  <si>
+    <t>工程图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%BD%E6%95%B0%E5%9B%BE%E5%BD%A2</t>
+  </si>
+  <si>
+    <t>函数图形</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E6%84%8F%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>形意文字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E7%89%87</t>
+  </si>
+  <si>
+    <t>相片</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BD%A2%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>象形文字</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Plot</t>
+  </si>
+  <si>
+    <t>en-Plot</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Schematic</t>
+  </si>
+  <si>
+    <t>en-Schematic</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>表格</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Technical_illustration</t>
+  </si>
+  <si>
+    <t>en-Technical illustration</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%A8%E6%88%B7%E7%95%8C%E9%9D%A2</t>
+  </si>
+  <si>
+    <t>用户界面</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE_(%E6%95%B0%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>图 (数学)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jacques_Bertin</t>
+  </si>
+  <si>
+    <t>en-Jacques Bertin</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jim_Blinn</t>
+  </si>
+  <si>
+    <t>en-Jim Blinn</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Stuart_Card</t>
+  </si>
+  <si>
+    <t>en-Stuart Card</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Thomas_A._DeFanti</t>
+  </si>
+  <si>
+    <t>en-Thomas A. DeFanti</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%E5%B0%94%C2%B7%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%BC%97%E5%85%B0%E5%BE%B7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>迈克尔·路易斯·弗兰德利</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/George_Furnas</t>
+  </si>
+  <si>
+    <t>en-George Furnas</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nigel_Holmes</t>
+  </si>
+  <si>
+    <t>en-Nigel Holmes</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Alan_MacEachren</t>
+  </si>
+  <si>
+    <t>en-Alan MacEachren</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jock_D._Mackinlay</t>
+  </si>
+  <si>
+    <t>en-Jock D. Mackinlay</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Michael_Maltz</t>
+  </si>
+  <si>
+    <t>en-Michael Maltz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bruce_H._McCormick</t>
+  </si>
+  <si>
+    <t>en-Bruce H. McCormick</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Charles_Joseph_Minard</t>
+  </si>
+  <si>
+    <t>en-Charles Joseph Minard</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Otto_Neurath</t>
+  </si>
+  <si>
+    <t>en-Otto Neurath</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Florence_Nightingale</t>
+  </si>
+  <si>
+    <t>en-Florence Nightingale</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Clifford_A._Pickover</t>
+  </si>
+  <si>
+    <t>en-Clifford A. Pickover</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/William_Playfair</t>
+  </si>
+  <si>
+    <t>en-William Playfair</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Adolphe_Quetelet</t>
+  </si>
+  <si>
+    <t>en-Adolphe Quetelet</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/George_G._Robertson</t>
+  </si>
+  <si>
+    <t>en-George G. Robertson</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Arthur_H._Robinson</t>
+  </si>
+  <si>
+    <t>en-Arthur H. Robinson</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lawrence_J._Rosenblum</t>
+  </si>
+  <si>
+    <t>en-Lawrence J. Rosenblum</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ben_Shneiderman</t>
+  </si>
+  <si>
+    <t>en-Ben Shneiderman</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Edward_Tufte</t>
+  </si>
+  <si>
+    <t>en-Edward Tufte</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Fernanda_Viegas</t>
+  </si>
+  <si>
+    <t>en-Fernanda Viegas</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Manuel_Lima</t>
+  </si>
+  <si>
+    <t>en-Manuel Lima</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gaspard_Monge</t>
+  </si>
+  <si>
+    <t>en-Gaspard Monge</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Prot%C3%A9g%C3%A9_(%E8%BD%AF%E4%BB%B6)</t>
+  </si>
+  <si>
+    <t>Protégé (软件)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Sirius%E5%8F%AF%E8%A7%86%E5%8C%96%E8%BD%AF%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>Sirius可视化软件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/VisIt</t>
+  </si>
+  <si>
+    <t>VisIt</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Scilab</t>
+  </si>
+  <si>
+    <t>Scilab</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%9B%BE%E5%BD%A2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>计算机图形学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%8D%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>位图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%A7%86%E5%8C%96_(%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%9B%BE%E5%BD%A2%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>可视化 (计算机图形学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E8%A7%89%E5%8C%96</t>
+  </si>
+  <si>
+    <t>视觉化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%83%8F%E5%A4%84%E7%90%86</t>
+  </si>
+  <si>
+    <t>图像处理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%9B%BE%E5%BD%A2</t>
+  </si>
+  <si>
+    <t>计算机图形</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%8A%A8%E7%94%BB</t>
+  </si>
+  <si>
+    <t>计算机动画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E6%A8%A1%E6%8B%9F</t>
+  </si>
+  <si>
+    <t>计算机模拟</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Scientific_modelling</t>
+  </si>
+  <si>
+    <t>en-Scientific modelling</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%BA%E4%BA%A4%E4%BA%92</t>
+  </si>
+  <si>
+    <t>人机交互</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%BD%A2%E7%94%A8%E6%88%B7%E7%95%8C%E9%9D%A2</t>
+  </si>
+  <si>
+    <t>图形用户界面</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E8%A6%8B%E5%8D%B3%E6%89%80%E5%BE%97</t>
+  </si>
+  <si>
+    <t>所见即所得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%A4%BA</t>
+  </si>
+  <si>
+    <t>图示</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E7%8E%B0%E5%AE%9E</t>
+  </si>
+  <si>
+    <t>虚拟现实</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%83%8F%E5%BC%8F%E6%80%9D%E8%80%83%E8%BC%94%E5%8A%A9%E5%B7%A5%E5%85%B7</t>
+  </si>
+  <si>
+    <t>图像式思考辅助工具</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%85%E4%BA%8B%E6%9D%BF</t>
+  </si>
+  <si>
+    <t>故事板</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%B7%9D%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>石川图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E5%BC%95%E5%9C%96</t>
+  </si>
+  <si>
+    <t>导引图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E6%A8%B9</t>
+  </si>
+  <si>
+    <t>记忆树</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E6%99%BA%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>心智图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E7%A8%8B%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>流程图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%8B%89%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>欧拉图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9B%BE%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>地图学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chartjunk</t>
+  </si>
+  <si>
+    <t>en-Chartjunk</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Graph_drawing</t>
+  </si>
+  <si>
+    <t>en-Graph drawing</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E9%9D%A2%E8%AE%BE%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>平面设计</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Imaging_science</t>
+  </si>
+  <si>
+    <t>en-Imaging science</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>信息学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%9B%BE%E5%BD%A2</t>
+  </si>
+  <si>
+    <t>信息图形</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mental_image</t>
+  </si>
+  <si>
+    <t>en-Mental image</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Misleading_graph</t>
+  </si>
+  <si>
+    <t>en-Misleading graph</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E6%88%90%E5%83%8F</t>
+  </si>
+  <si>
+    <t>神经成像</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Patent_drawing</t>
+  </si>
+  <si>
+    <t>en-Patent drawing</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%97%B4%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>空间分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%A7%86%E5%8C%96%E5%88%86%E6%9E%90%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>可视化分析论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E7%9F%A5%E8%A7%89</t>
+  </si>
+  <si>
+    <t>视知觉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%84%8F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>图意学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%83%8F%E8%A8%98%E8%AD%9C</t>
+  </si>
+  <si>
+    <t>图像记谱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>概率论</t>
-  </si>
-  <si>
-    <t>政策_政策_管理_统计学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E5%85%AC%E7%90%86</t>
-  </si>
-  <si>
-    <t>概率公理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E7%A9%BA%E9%96%93</t>
-  </si>
-  <si>
-    <t>概率空間</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B7%E6%9C%AC%E7%A9%BA%E9%97%B4</t>
-  </si>
-  <si>
-    <t>样本空间</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E4%BB%B6_(%E6%A6%82%E7%8E%87%E8%AE%BA)</t>
-  </si>
-  <si>
-    <t>事件 (概率论)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%8F%E6%9C%BA%E5%8F%98%E9%87%8F</t>
-  </si>
-  <si>
-    <t>随机变量</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E7%AB%8B%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>对立事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%88%86%E5%B8%83</t>
-  </si>
-  <si>
-    <t>联合分布</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%BC%98%E5%88%86%E5%B8%83</t>
-  </si>
-  <si>
-    <t>边缘分布</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%A1%E4%BB%B6%E6%A6%82%E7%8E%87</t>
-  </si>
-  <si>
-    <t>条件概率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E7%8D%A8%E7%AB%8B%E6%80%A7</t>
-  </si>
-  <si>
-    <t>統計獨立性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E4%BB%B6%E7%8D%A8%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>條件獨立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%A6%82%E7%8E%87%E5%85%AC%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>全概率公式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%95%B0%E5%AE%9A%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>大数定律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%8F%B6%E6%96%AF%E5%AE%9A%E7%90%86</t>
-  </si>
-  <si>
-    <t>贝叶斯定理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E4%B8%8D%E7%AD%89%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>布尔不等式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%B0%8F%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>文氏图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E5%BD%A2%E5%9C%96</t>
-  </si>
-  <si>
-    <t>樹形圖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>學科列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>自然科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%AD%A6%E7%A7%91</t>
-  </si>
-  <si>
-    <t>人文学科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>工商業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%95%B0%E6%8D%AE</t>
-  </si>
-  <si>
-    <t>大数据</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>資料科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%8F%E8%BF%B0%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>描述统计学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E6%93%9A</t>
-  </si>
-  <si>
-    <t>數據</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>隨機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E6%A8%A1%E5%9E%8B</t>
-  </si>
-  <si>
-    <t>数学模型</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E8%AB%96%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>推論統計學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>数理统计学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE</t>
-  </si>
-  <si>
-    <t>数据</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%95%E9%AA%8C%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>试验设计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E6%A8%A1%E5%9E%8B</t>
-  </si>
-  <si>
-    <t>概率模型</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E5%88%86%E5%B8%83</t>
-  </si>
-  <si>
-    <t>概率分布</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%83%E5%89%8D5%E4%B8%96%E7%BA%AA</t>
-  </si>
-  <si>
-    <t>公元前5世纪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>肯迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%91%E7%8E%87%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>频率分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%A0%81%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>密码学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%85%8B%E5%88%86%E9%85%8D</t>
-  </si>
-  <si>
-    <t>常態分配</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%90%98%E5%9E%8B%E6%9B%B2%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>鐘型曲線</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>拉丁语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>國會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>意大利語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>政治家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99</t>
-  </si>
-  <si>
-    <t>資料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>中央政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>管理階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85</t>
-  </si>
-  <si>
-    <t>国际</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E7%8E%87</t>
-  </si>
-  <si>
-    <t>機率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>天文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E6%95%B0</t>
-  </si>
-  <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>商業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82</t>
-  </si>
-  <si>
-    <t>醫療</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>數學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>教育学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%8D%AB%E7%94%9F%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>公共卫生学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%8E%B1%E5%85%B9%C2%B7%E5%B8%95%E6%96%AF%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>布莱兹·帕斯卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%C2%B7%E5%BE%B7%C2%B7%E8%B2%BB%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>皮埃爾·德·費馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%B0%8F%E4%BA%8C%E4%B9%98%E6%B3%95</t>
-  </si>
-  <si>
-    <t>最小二乘法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E9%AB%98%E6%96%AF</t>
-  </si>
-  <si>
-    <t>卡爾·弗里德里希·高斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B8%A2%E5%B0%BE%E8%8A%B1</t>
-  </si>
-  <si>
-    <t>鸢尾花</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%96%B9%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>直方图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E5%BA%8F%E5%88%97</t>
-  </si>
-  <si>
-    <t>時間序列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%A3%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>樣本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%9D%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>平均数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E5%B7%AE</t>
-  </si>
-  <si>
-    <t>標準差</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%87%E8%A8%AD%E6%AA%A2%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>假設檢定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%85%B3%E6%80%A7</t>
-  </si>
-  <si>
-    <t>相关性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%B4%E6%AD%B8</t>
-  </si>
-  <si>
-    <t>迴歸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E7%95%B0%E6%95%B8%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>變異數分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E6%8C%96%E6%8E%98</t>
-  </si>
-  <si>
-    <t>数据挖掘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E8%A8%AD%E8%A8%88</t>
-  </si>
-  <si>
-    <t>實驗設計</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E6%8F%90%E9%9C%8D%E7%88%BE%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>蒙提霍爾問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E6%9E%9C</t>
-  </si>
-  <si>
-    <t>因果</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%85%B3%E7%B3%BB%E6%95%B0</t>
-  </si>
-  <si>
-    <t>相关系数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%B7%AE</t>
-  </si>
-  <si>
-    <t>偏差</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%B7%AE%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>方差分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%87%E8%AF%B4</t>
-  </si>
-  <si>
-    <t>假说</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%A1%91%E6%95%88%E5%BA%94</t>
-  </si>
-  <si>
-    <t>霍桑效应</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E7%8E%87</t>
-  </si>
-  <si>
-    <t>生产率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%AF%E5%B7%AE</t>
-  </si>
-  <si>
-    <t>误差</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E7%9B%B2</t>
-  </si>
-  <si>
-    <t>双盲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%97%85%E4%BE%8B%E5%B0%8D%E7%85%A7%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>病例對照研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E7%9A%84%E5%B0%BA%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>測量的尺度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%81%87%E8%AE%BE</t>
-  </si>
-  <si>
-    <t>零假设</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%9E%8B%E5%8F%8A%E7%AC%AC%E4%BA%8C%E5%9E%8B%E9%8C%AF%E8%AA%A4</t>
-  </si>
-  <si>
-    <t>第一型及第二型錯誤</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%AE%E4%BF%A1%E5%8C%BA%E9%97%B4</t>
-  </si>
-  <si>
-    <t>置信区间</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%8F%B6%E6%96%AF%E6%A6%82%E7%8E%87</t>
-  </si>
-  <si>
-    <t>贝叶斯概率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%BE%E8%91%97%E6%80%A7%E5%B7%AE%E5%BC%82</t>
-  </si>
-  <si>
-    <t>显著性差异</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%87%E8%AE%BE%E6%A3%80%E9%AA%8C</t>
-  </si>
-  <si>
-    <t>假设检验</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Student_t%E6%AA%A2%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>Student t檢定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%B9%E5%88%86%E9%85%8D</t>
-  </si>
-  <si>
-    <t>卡方分配</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E5%BD%92%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>回归分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%B0%94%E9%80%8A%E7%A7%AF%E7%9F%A9%E7%9B%B8%E5%85%B3%E7%B3%BB%E6%95%B0</t>
-  </si>
-  <si>
-    <t>皮尔逊积矩相关系数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%8C%B9%E6%9B%BC%E7%AD%89%E7%B4%9A%E7%9B%B8%E9%97%9C%E4%BF%82%E6%95%B8</t>
-  </si>
-  <si>
-    <t>史匹曼等級相關係數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%BB%9F%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>数理统计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E6%A8%A3</t>
-  </si>
-  <si>
-    <t>抽樣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E6%95%B0%E4%BC%B0%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>参数估计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%97%B4%E5%BA%8F%E5%88%97%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>时间序列分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E7%B1%BB%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>聚类分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%88%A5%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>判別分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%88%90%E5%88%86%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>主成分分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>农业科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88</t>
-  </si>
-  <si>
-    <t>生物統計</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E6%8E%A1%E7%A4%A6</t>
-  </si>
-  <si>
-    <t>資料採礦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>统计物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>心理统计学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%BA%BF%E6%80%A7</t>
-  </si>
-  <si>
-    <t>非线性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%BD%91%E7%BB%9C</t>
-  </si>
-  <si>
-    <t>神经网络</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E7%BE%A9%E7%B7%9A%E6%80%A7%E6%A8%A1%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>廣義線性模式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%BA%A7%E7%BA%BF%E6%80%A7%E6%A8%A1%E5%9E%8B</t>
-  </si>
-  <si>
-    <t>等级线性模型</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8A%A9%E6%B3%95</t>
-  </si>
-  <si>
-    <t>自助法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E8%AA%A4%E7%94%A8</t>
-  </si>
-  <si>
-    <t>統計誤用</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B0%8E%E8%A8%80%EF%BC%8C%E8%AF%A5%E6%AD%BB%E7%9A%84%E8%B0%8E%E8%A8%80%EF%BC%8C%E7%BB%9F%E8%AE%A1%E6%95%B0%E5%AD%97</t>
-  </si>
-  <si>
-    <t>谎言，该死的谎言，统计数字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E7%8E%87%E6%A6%82%E5%8C%96</t>
-  </si>
-  <si>
-    <t>輕率概化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%A1%E5%BD%A2%E7%BB%9F%E8%AE%A1%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>条形统计图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>代表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/DOI</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>统计学家列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%9B%BE%E5%BD%A2</t>
-  </si>
-  <si>
-    <t>统计图形</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>Template talk-統計學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>統計學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E7%BB%AD%E6%A6%82%E7%8E%87</t>
-  </si>
-  <si>
-    <t>连续概率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%B8%AD%E8%B6%8B%E5%8A%BF</t>
-  </si>
-  <si>
-    <t>集中趋势</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%B9%B3%E5%9D%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>平方平均數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%97%E8%A1%93%E5%B9%B3%E5%9D%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>算術平均數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E4%BD%95%E5%B9%B3%E5%9D%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>幾何平均數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E5%92%8C%E5%B9%B3%E5%9D%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>調和平均數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%97%E6%9C%AF-%E5%87%A0%E4%BD%95%E5%B9%B3%E5%9D%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>算术-几何平均数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E4%BD%95-%E8%B0%83%E5%92%8C%E5%B9%B3%E5%9D%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>几何-调和平均数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%B9%B3%E5%9D%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>希羅平均數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%9D%87%E6%95%B0%E4%B8%8D%E7%AD%89%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>平均数不等式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BD%8D%E6%95%B8</t>
-  </si>
-  <si>
-    <t>中位數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%97%E6%95%B0_(%E6%95%B0%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>众数 (数学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E6%95%A3%E7%A8%8B%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>离散程度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%B7%9D</t>
-  </si>
-  <si>
-    <t>全距</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E5%BC%82%E7%B3%BB%E6%95%B0</t>
-  </si>
-  <si>
-    <t>变异系数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%88%86%E4%BD%8D%E6%95%B0</t>
-  </si>
-  <si>
-    <t>百分位数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%88%86%E5%B7%AE</t>
-  </si>
-  <si>
-    <t>四分差</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%88%86%E4%BD%8D%E6%95%B0</t>
-  </si>
-  <si>
-    <t>四分位数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%B7%AE</t>
-  </si>
-  <si>
-    <t>方差</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E5%88%86%E6%95%B8</t>
-  </si>
-  <si>
-    <t>標準分數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E6%AF%94%E9%9B%AA%E5%A4%AB%E4%B8%8D%E7%AD%89%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>切比雪夫不等式</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Shape_of_the_distribution</t>
-  </si>
-  <si>
-    <t>en-Shape of the distribution</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>偏度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>峰度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E6%95%A3%E6%A6%82%E7%8E%87</t>
-  </si>
-  <si>
-    <t>离散概率</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Count_data</t>
-  </si>
-  <si>
-    <t>en-Count data</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Contingency_table</t>
-  </si>
-  <si>
-    <t>en-Contingency table</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Interval_estimation</t>
-  </si>
-  <si>
-    <t>en-Interval estimation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>元分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%B0%8F%E6%8E%A8%E8%AB%96</t>
-  </si>
-  <si>
-    <t>貝氏推論</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Replication_(statistics)</t>
-  </si>
-  <si>
-    <t>en-Replication (statistics)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Blocking_(statistics)</t>
-  </si>
-  <si>
-    <t>en-Blocking (statistics)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sample_size</t>
-  </si>
-  <si>
-    <t>en-Sample size</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%8A%9F%E6%95%88</t>
-  </si>
-  <si>
-    <t>统计功效</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%88%E5%BA%94%E5%80%BC</t>
-  </si>
-  <si>
-    <t>效应值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E8%AF%AF</t>
-  </si>
-  <si>
-    <t>标准误</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Alternative_hypothesis</t>
-  </si>
-  <si>
-    <t>en-Alternative hypothesis</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%9E%8B%E5%92%8C%E7%AC%AC%E4%BA%8C%E5%9E%8B%E8%AA%A4%E5%B7%AE</t>
-  </si>
-  <si>
-    <t>第一型和第二型誤差</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E6%AA%A2%E5%AE%9A%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>統計檢定力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%8F%B6%E6%96%AF%E6%8E%A8%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>贝叶斯推论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E4%BC%BC%E7%84%B6%E4%BC%B0%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>最大似然估计</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Minimum_distance_estimation</t>
-  </si>
-  <si>
-    <t>en-Minimum distance estimation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A9%E9%87%8F%E6%B3%95_(%E7%B5%B1%E8%A8%88%E5%AD%B8)</t>
-  </si>
-  <si>
-    <t>矩量法 (統計學)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Z%E6%A3%80%E9%AA%8C</t>
-  </si>
-  <si>
-    <t>Z检验</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9Ft%E6%AA%A2%E9%A9%97</t>
-  </si>
-  <si>
-    <t>學生t檢驗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/F%E6%A3%80%E9%AA%8C</t>
-  </si>
-  <si>
-    <t>F检验</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%B9%E6%A3%80%E9%AA%8C</t>
-  </si>
-  <si>
-    <t>卡方检验</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Wald_test</t>
-  </si>
-  <si>
-    <t>en-Wald test</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mann%E2%80%93Whitney_U_test</t>
-  </si>
-  <si>
-    <t>en-Mann–Whitney U test</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%AD%98%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>生存分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%AD%98%E5%87%BD%E6%95%B8</t>
-  </si>
-  <si>
-    <t>生存函數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%95%88%E7%8E%87</t>
-  </si>
-  <si>
-    <t>失效率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%85%B3</t>
-  </si>
-  <si>
-    <t>相关</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Confounding</t>
-  </si>
-  <si>
-    <t>en-Confounding</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%88%BE%E6%A3%AE%E7%A9%8D%E5%B7%AE%E7%9B%B8%E9%97%9C%E4%BF%82%E6%95%B8</t>
-  </si>
-  <si>
-    <t>皮爾森積差相關係數</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rank_correlation</t>
-  </si>
-  <si>
-    <t>en-Rank correlation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kendall_tau_rank_correlation_coefficient</t>
-  </si>
-  <si>
-    <t>en-Kendall tau rank correlation coefficient</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E6%80%A7%E5%9B%9E%E6%AD%B8</t>
-  </si>
-  <si>
-    <t>線性回歸</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Linear_model</t>
-  </si>
-  <si>
-    <t>en-Linear model</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E7%B7%9A%E6%80%A7%E6%A8%A1%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>一般線性模式</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Analysis_of_covariance</t>
-  </si>
-  <si>
-    <t>en-Analysis of covariance</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nonlinear_regression</t>
-  </si>
-  <si>
-    <t>en-Nonlinear regression</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nonparametric_regression</t>
-  </si>
-  <si>
-    <t>en-Nonparametric regression</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Semiparametric_regression</t>
-  </si>
-  <si>
-    <t>en-Semiparametric regression</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Logit%E6%A8%A1%E5%9E%8B</t>
-  </si>
-  <si>
-    <t>Logit模型</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A5%BC%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>饼图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%A8%99%E5%9C%96</t>
-  </si>
-  <si>
-    <t>雙標圖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%B1%E5%BD%A2%E5%9C%96</t>
-  </si>
-  <si>
-    <t>箱形圖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E5%88%B6%E5%9C%96</t>
-  </si>
-  <si>
-    <t>管制圖</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Forest_plot</t>
-  </si>
-  <si>
-    <t>en-Forest plot</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/QQ%E5%9C%96</t>
-  </si>
-  <si>
-    <t>QQ圖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8B%E5%8A%BF%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>趋势图</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Scatter_plot</t>
-  </si>
-  <si>
-    <t>en-Scatter plot</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Stem-and-leaf_display</t>
-  </si>
-  <si>
-    <t>en-Stem-and-leaf display</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Radar_chart</t>
-  </si>
-  <si>
-    <t>en-Radar chart</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BA%E6%84%8F%E5%9C%B0%E5%9C%96</t>
-  </si>
-  <si>
-    <t>示意地圖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E9%A2%86%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>数学领域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E5%AD%A6%E7%A7%91%E5%88%86%E7%B1%BB%E6%A0%87%E5%87%86</t>
-  </si>
-  <si>
-    <t>数学学科分类标准</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%AD%A6%E7%A7%91%E5%88%86%E7%B1%BB%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86/110</t>
-  </si>
-  <si>
-    <t>中国学科分类国家标准/110</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E9%80%BB%E8%BE%91</t>
-  </si>
-  <si>
-    <t>数理逻辑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%90%88%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>集合论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%95%B4%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>范畴论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%95%B0</t>
-  </si>
-  <si>
-    <t>代数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%AD%89%E4%BB%A3%E6%95%B0</t>
-  </si>
-  <si>
-    <t>初等代数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E6%80%A7%E4%BB%A3%E6%95%B0</t>
-  </si>
-  <si>
-    <t>线性代数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%87%8D%E7%BA%BF%E6%80%A7%E4%BB%A3%E6%95%B0</t>
-  </si>
-  <si>
-    <t>多重线性代数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E4%BB%A3%E6%95%B0</t>
-  </si>
-  <si>
-    <t>抽象代数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>数论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>数学分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%A7%AF%E5%88%86</t>
-  </si>
-  <si>
-    <t>微积分</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%88%86%E6%96%B9%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>微分方程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E6%80%81%E7%B3%BB%E7%BB%9F%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>动态系统理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E7%89%A9%E7%90%86</t>
-  </si>
-  <si>
-    <t>数学物理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E4%BD%95%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>几何学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Discrete_geometry</t>
-  </si>
-  <si>
-    <t>en-Discrete geometry</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%9E%90%E5%87%A0%E4%BD%95</t>
-  </si>
-  <si>
-    <t>解析几何</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%88%86%E5%87%A0%E4%BD%95</t>
-  </si>
-  <si>
-    <t>微分几何</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E5%B9%BE%E4%BD%95%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>有限幾何學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%93%E6%89%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>拓扑学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E5%8A%9B%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>动力系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88</t>
-  </si>
-  <si>
-    <t>組合</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E5%87%BD%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>泛函分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>博弈论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>信息论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>图论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>数学教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%80%BC%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>数值分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BC%98%E5%8C%96</t>
-  </si>
-  <si>
-    <t>最优化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%8F%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>序理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>数学哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%A3%E5%91%B3%E6%95%B8%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>趣味數學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>计算理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E7%A4%BA%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>表示论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>三角学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%AF%E7%B2%B9%E6%95%B0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>纯粹数学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E6%95%B0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>应用数学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E6%95%A3%E6%95%B0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>离散数学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%95%B0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>计算数学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%95%B0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>元数学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF</t>
-  </si>
-  <si>
-    <t>信息</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%A7%86%E5%8C%96</t>
-  </si>
-  <si>
-    <t>可视化</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Biological_data_visualization</t>
-  </si>
-  <si>
-    <t>en-Biological data visualization</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chemical_imaging</t>
-  </si>
-  <si>
-    <t>en-Chemical imaging</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%AA%E8%A1%8C%E7%BB%98%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>罪行绘图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E5%8F%AF%E8%A7%86%E5%8C%96</t>
-  </si>
-  <si>
-    <t>数据可视化</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Flow_visualization</t>
-  </si>
-  <si>
-    <t>en-Flow visualization</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%8F%AF%E8%A7%86%E5%8C%96</t>
-  </si>
-  <si>
-    <t>地理可视化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%8F%AF%E8%A7%86%E5%8C%96</t>
-  </si>
-  <si>
-    <t>信息可视化</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mathematical_diagram</t>
-  </si>
-  <si>
-    <t>en-Mathematical diagram</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E5%BD%B1%E5%83%8F</t>
-  </si>
-  <si>
-    <t>医学影像</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Molecular_graphics</t>
-  </si>
-  <si>
-    <t>en-Molecular graphics</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%8F%AF%E8%A7%86%E5%8C%96</t>
-  </si>
-  <si>
-    <t>科学可视化</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Software_visualization</t>
-  </si>
-  <si>
-    <t>en-Software visualization</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%88%B6%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>工程制图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%A8%E6%88%B7%E7%95%8C%E9%9D%A2%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>用户界面设计</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Visual_culture</t>
-  </si>
-  <si>
-    <t>en-Visual culture</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E4%BD%93%E6%B8%B2%E6%9F%93</t>
-  </si>
-  <si>
-    <t>立体渲染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%9C%96%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>統計圖表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Diagram</t>
-  </si>
-  <si>
-    <t>en-Diagram</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%9C%96</t>
-  </si>
-  <si>
-    <t>工程圖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%BD%E6%95%B0%E5%9B%BE%E5%BD%A2</t>
-  </si>
-  <si>
-    <t>函数图形</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E6%84%8F%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>形意文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>地图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E7%89%87</t>
-  </si>
-  <si>
-    <t>相片</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BD%A2%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>象形文字</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Plot</t>
-  </si>
-  <si>
-    <t>en-Plot</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Schematic</t>
-  </si>
-  <si>
-    <t>en-Schematic</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>表格</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Technical_illustration</t>
-  </si>
-  <si>
-    <t>en-Technical illustration</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%A8%E6%88%B7%E7%95%8C%E9%9D%A2</t>
-  </si>
-  <si>
-    <t>用户界面</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE_(%E6%95%B0%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>图 (数学)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jacques_Bertin</t>
-  </si>
-  <si>
-    <t>en-Jacques Bertin</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jim_Blinn</t>
-  </si>
-  <si>
-    <t>en-Jim Blinn</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Stuart_Card</t>
-  </si>
-  <si>
-    <t>en-Stuart Card</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Thomas_A._DeFanti</t>
-  </si>
-  <si>
-    <t>en-Thomas A. DeFanti</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%E5%B0%94%C2%B7%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%BC%97%E5%85%B0%E5%BE%B7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>迈克尔·路易斯·弗兰德利</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/George_Furnas</t>
-  </si>
-  <si>
-    <t>en-George Furnas</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nigel_Holmes</t>
-  </si>
-  <si>
-    <t>en-Nigel Holmes</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Alan_MacEachren</t>
-  </si>
-  <si>
-    <t>en-Alan MacEachren</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jock_D._Mackinlay</t>
-  </si>
-  <si>
-    <t>en-Jock D. Mackinlay</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Michael_Maltz</t>
-  </si>
-  <si>
-    <t>en-Michael Maltz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bruce_H._McCormick</t>
-  </si>
-  <si>
-    <t>en-Bruce H. McCormick</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Charles_Joseph_Minard</t>
-  </si>
-  <si>
-    <t>en-Charles Joseph Minard</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Otto_Neurath</t>
-  </si>
-  <si>
-    <t>en-Otto Neurath</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Florence_Nightingale</t>
-  </si>
-  <si>
-    <t>en-Florence Nightingale</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Clifford_A._Pickover</t>
-  </si>
-  <si>
-    <t>en-Clifford A. Pickover</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/William_Playfair</t>
-  </si>
-  <si>
-    <t>en-William Playfair</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Adolphe_Quetelet</t>
-  </si>
-  <si>
-    <t>en-Adolphe Quetelet</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/George_G._Robertson</t>
-  </si>
-  <si>
-    <t>en-George G. Robertson</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Arthur_H._Robinson</t>
-  </si>
-  <si>
-    <t>en-Arthur H. Robinson</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lawrence_J._Rosenblum</t>
-  </si>
-  <si>
-    <t>en-Lawrence J. Rosenblum</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ben_Shneiderman</t>
-  </si>
-  <si>
-    <t>en-Ben Shneiderman</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Edward_Tufte</t>
-  </si>
-  <si>
-    <t>en-Edward Tufte</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Fernanda_Viegas</t>
-  </si>
-  <si>
-    <t>en-Fernanda Viegas</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Manuel_Lima</t>
-  </si>
-  <si>
-    <t>en-Manuel Lima</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gaspard_Monge</t>
-  </si>
-  <si>
-    <t>en-Gaspard Monge</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Prot%C3%A9g%C3%A9_(%E8%BD%AF%E4%BB%B6)</t>
-  </si>
-  <si>
-    <t>Protégé (软件)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Sirius%E5%8F%AF%E8%A7%86%E5%8C%96%E8%BD%AF%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>Sirius可视化软件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/VisIt</t>
-  </si>
-  <si>
-    <t>VisIt</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Scilab</t>
-  </si>
-  <si>
-    <t>Scilab</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%9B%BE%E5%BD%A2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>计算机图形学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%8D%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>位图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%A7%86%E5%8C%96_(%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%9B%BE%E5%BD%A2%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>可视化 (计算机图形学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E8%A7%89%E5%8C%96</t>
-  </si>
-  <si>
-    <t>视觉化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%83%8F%E5%A4%84%E7%90%86</t>
-  </si>
-  <si>
-    <t>图像处理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%9B%BE%E5%BD%A2</t>
-  </si>
-  <si>
-    <t>计算机图形</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%8A%A8%E7%94%BB</t>
-  </si>
-  <si>
-    <t>计算机动画</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E6%A8%A1%E6%8B%9F</t>
-  </si>
-  <si>
-    <t>计算机模拟</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Scientific_modelling</t>
-  </si>
-  <si>
-    <t>en-Scientific modelling</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%BA%E4%BA%A4%E4%BA%92</t>
-  </si>
-  <si>
-    <t>人机交互</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%BD%A2%E7%94%A8%E6%88%B7%E7%95%8C%E9%9D%A2</t>
-  </si>
-  <si>
-    <t>图形用户界面</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E8%A6%8B%E5%8D%B3%E6%89%80%E5%BE%97</t>
-  </si>
-  <si>
-    <t>所見即所得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%A4%BA</t>
-  </si>
-  <si>
-    <t>圖示</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E7%8E%B0%E5%AE%9E</t>
-  </si>
-  <si>
-    <t>虚拟现实</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%83%8F%E5%BC%8F%E6%80%9D%E8%80%83%E8%BC%94%E5%8A%A9%E5%B7%A5%E5%85%B7</t>
-  </si>
-  <si>
-    <t>圖像式思考輔助工具</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%85%E4%BA%8B%E6%9D%BF</t>
-  </si>
-  <si>
-    <t>故事板</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%B7%9D%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>石川图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E5%BC%95%E5%9C%96</t>
-  </si>
-  <si>
-    <t>導引圖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E6%A8%B9</t>
-  </si>
-  <si>
-    <t>記憶樹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E6%99%BA%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>心智图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E7%A8%8B%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>流程图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%8B%89%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>欧拉图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9B%BE%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>地图学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chartjunk</t>
-  </si>
-  <si>
-    <t>en-Chartjunk</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Graph_drawing</t>
-  </si>
-  <si>
-    <t>en-Graph drawing</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E9%9D%A2%E8%AE%BE%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>平面设计</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Imaging_science</t>
-  </si>
-  <si>
-    <t>en-Imaging science</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>信息学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%9B%BE%E5%BD%A2</t>
-  </si>
-  <si>
-    <t>信息图形</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mental_image</t>
-  </si>
-  <si>
-    <t>en-Mental image</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Misleading_graph</t>
-  </si>
-  <si>
-    <t>en-Misleading graph</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E6%88%90%E5%83%8F</t>
-  </si>
-  <si>
-    <t>神经成像</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Patent_drawing</t>
-  </si>
-  <si>
-    <t>en-Patent drawing</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%97%B4%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>空间分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%A7%86%E5%8C%96%E5%88%86%E6%9E%90%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>可视化分析论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E7%9F%A5%E8%A7%89</t>
-  </si>
-  <si>
-    <t>视知觉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%84%8F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>圖意學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%83%8F%E8%A8%98%E8%AD%9C</t>
-  </si>
-  <si>
-    <t>圖像記譜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2478,7 +2475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I368"/>
+  <dimension ref="A1:I369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3486,7 +3483,7 @@
         <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G35" t="n">
         <v>35</v>
@@ -3512,10 +3509,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -3541,10 +3538,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3599,10 +3596,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3628,10 +3625,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3657,10 +3654,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3686,10 +3683,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3715,10 +3712,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3744,10 +3741,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3773,10 +3770,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3802,10 +3799,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3831,10 +3828,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3860,10 +3857,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3889,10 +3886,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3918,10 +3915,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>24</v>
@@ -3947,10 +3944,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3976,10 +3973,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4005,10 +4002,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4034,10 +4031,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4063,10 +4060,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
@@ -4092,10 +4089,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4121,10 +4118,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4150,10 +4147,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -4179,10 +4176,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -4208,10 +4205,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="G60" t="n">
         <v>11</v>
@@ -4237,10 +4234,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4266,10 +4263,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4295,10 +4292,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4324,10 +4321,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4353,10 +4350,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4382,10 +4379,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4411,10 +4408,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4440,10 +4437,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4469,10 +4466,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4498,10 +4495,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4527,10 +4524,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4556,10 +4553,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>7</v>
@@ -4585,10 +4582,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -4614,10 +4611,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4643,10 +4640,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4672,10 +4669,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4701,10 +4698,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4730,10 +4727,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4759,10 +4756,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4788,10 +4785,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4817,10 +4814,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4846,10 +4843,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -4875,10 +4872,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4904,10 +4901,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>6</v>
@@ -4933,10 +4930,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -4962,10 +4959,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4991,10 +4988,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5020,10 +5017,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -5049,10 +5046,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>11</v>
@@ -5078,10 +5075,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5107,10 +5104,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5136,10 +5133,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>4</v>
@@ -5165,10 +5162,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>11</v>
@@ -5194,10 +5191,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5223,10 +5220,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5252,10 +5249,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5281,10 +5278,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5310,10 +5307,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>9</v>
@@ -5339,10 +5336,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5368,10 +5365,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>8</v>
@@ -5397,10 +5394,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5426,10 +5423,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5455,10 +5452,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5484,10 +5481,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5513,10 +5510,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5542,10 +5539,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5571,10 +5568,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5600,10 +5597,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -5629,10 +5626,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5658,10 +5655,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5687,10 +5684,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5716,10 +5713,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5745,10 +5742,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5774,10 +5771,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F114" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5803,10 +5800,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5832,10 +5829,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5861,10 +5858,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5890,10 +5887,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5919,10 +5916,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5948,10 +5945,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5977,10 +5974,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6006,10 +6003,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6035,10 +6032,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6064,10 +6061,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6093,10 +6090,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6122,10 +6119,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6151,10 +6148,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6180,10 +6177,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6209,10 +6206,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>12</v>
@@ -6238,10 +6235,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -6267,10 +6264,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6296,10 +6293,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6325,10 +6322,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>32</v>
@@ -6354,13 +6351,13 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -6383,10 +6380,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6412,10 +6409,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6441,10 +6438,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6470,10 +6467,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6499,10 +6496,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6528,10 +6525,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6557,10 +6554,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6586,10 +6583,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6615,10 +6612,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6644,10 +6641,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6673,10 +6670,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6702,10 +6699,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6731,10 +6728,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6760,10 +6757,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6789,10 +6786,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6818,10 +6815,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6847,10 +6844,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6876,13 +6873,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6905,13 +6902,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6934,10 +6931,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6963,10 +6960,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6992,10 +6989,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7021,10 +7018,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7050,10 +7047,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7079,10 +7076,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7108,10 +7105,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7137,13 +7134,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7166,13 +7163,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>189</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -7195,10 +7192,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7224,10 +7221,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7253,10 +7250,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>156</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7282,10 +7279,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7311,10 +7308,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7340,10 +7337,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7369,10 +7366,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7398,10 +7395,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7427,10 +7424,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7456,10 +7453,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>182</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7485,10 +7482,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7514,10 +7511,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7543,10 +7540,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7572,10 +7569,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7601,10 +7598,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7630,10 +7627,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7659,10 +7656,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7688,10 +7685,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>145</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>146</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7717,10 +7714,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>147</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>148</v>
+        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7746,10 +7743,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7775,10 +7772,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7804,10 +7801,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7833,10 +7830,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7862,10 +7859,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7891,10 +7888,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7920,10 +7917,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7949,10 +7946,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7978,13 +7975,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8007,13 +8004,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8036,10 +8033,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8065,10 +8062,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8094,10 +8091,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8123,13 +8120,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8152,13 +8149,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -8181,10 +8178,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8210,10 +8207,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8239,10 +8236,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8268,10 +8265,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8297,10 +8294,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8326,10 +8323,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8355,10 +8352,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>252</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8384,10 +8381,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>253</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>254</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8413,10 +8410,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>243</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>244</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8442,10 +8439,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>245</v>
+        <v>387</v>
       </c>
       <c r="F206" t="s">
-        <v>246</v>
+        <v>388</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8471,10 +8468,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8500,10 +8497,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8529,10 +8526,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8558,10 +8555,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>135</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>136</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8587,10 +8584,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>137</v>
+        <v>395</v>
       </c>
       <c r="F211" t="s">
-        <v>138</v>
+        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8616,10 +8613,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F212" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8645,10 +8642,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8674,10 +8671,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8703,10 +8700,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F215" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8732,10 +8729,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F216" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8761,10 +8758,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F217" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8790,10 +8787,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F218" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8819,10 +8816,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8848,13 +8845,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F220" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8877,13 +8874,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8906,13 +8903,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F222" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -8935,10 +8932,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8964,13 +8961,13 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F224" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8993,13 +8990,13 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F225" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -9022,13 +9019,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F226" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -9051,13 +9048,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G227" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -9080,10 +9077,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F228" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9109,10 +9106,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F229" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9138,13 +9135,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F230" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9167,13 +9164,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F231" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G231" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -9196,10 +9193,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9225,10 +9222,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9254,13 +9251,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9283,13 +9280,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9312,13 +9309,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9341,13 +9338,13 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F237" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -9370,10 +9367,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F238" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9399,13 +9396,13 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F239" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -9428,10 +9425,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9457,10 +9454,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9486,10 +9483,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F242" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9515,10 +9512,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F243" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9544,10 +9541,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F244" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9573,10 +9570,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F245" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9602,10 +9599,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9631,10 +9628,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F247" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9660,13 +9657,13 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F248" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -9689,13 +9686,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -9718,10 +9715,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9747,10 +9744,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9776,10 +9773,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9805,13 +9802,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F253" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9834,13 +9831,13 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>481</v>
+        <v>2</v>
       </c>
       <c r="F254" t="s">
-        <v>482</v>
+        <v>3</v>
       </c>
       <c r="G254" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -9863,13 +9860,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>2</v>
+        <v>479</v>
       </c>
       <c r="F255" t="s">
-        <v>3</v>
+        <v>480</v>
       </c>
       <c r="G255" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9892,10 +9889,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F256" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9921,10 +9918,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F257" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9950,10 +9947,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F258" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9979,10 +9976,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F259" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10008,10 +10005,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F260" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10037,10 +10034,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F261" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10066,13 +10063,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F262" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10095,13 +10092,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F263" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G263" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10124,13 +10121,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F264" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10153,13 +10150,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F265" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G265" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10182,13 +10179,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F266" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G266" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10211,10 +10208,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F267" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10240,10 +10237,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F268" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10269,13 +10266,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F269" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10298,13 +10295,13 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F270" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -10327,10 +10324,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F271" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10356,10 +10353,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F272" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10385,10 +10382,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F273" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10414,10 +10411,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F274" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10443,10 +10440,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F275" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10472,10 +10469,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F276" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10501,10 +10498,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="F277" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10530,10 +10527,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="F278" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10559,10 +10556,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F279" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10588,13 +10585,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F280" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10617,13 +10614,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F281" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -10646,10 +10643,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F282" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10675,10 +10672,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F283" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10704,10 +10701,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F284" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10733,10 +10730,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F285" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10762,10 +10759,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F286" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10791,10 +10788,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F287" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10820,10 +10817,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F288" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10849,13 +10846,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F289" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -10878,13 +10875,13 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F290" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -10907,10 +10904,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10936,13 +10933,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -10965,13 +10962,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F293" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -10994,10 +10991,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F294" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11023,10 +11020,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F295" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11052,13 +11049,13 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F296" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -11081,13 +11078,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F297" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G297" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -11110,13 +11107,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F298" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G298" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11139,10 +11136,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F299" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11168,10 +11165,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F300" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11197,10 +11194,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F301" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11226,10 +11223,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F302" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11255,10 +11252,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F303" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11284,10 +11281,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F304" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11313,10 +11310,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F305" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11342,10 +11339,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F306" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11371,10 +11368,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F307" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11400,10 +11397,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F308" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11429,10 +11426,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F309" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11458,10 +11455,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11487,10 +11484,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11516,10 +11513,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F312" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11545,10 +11542,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F313" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11574,10 +11571,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F314" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11603,10 +11600,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F315" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11632,10 +11629,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F316" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11661,10 +11658,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F317" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11690,10 +11687,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F318" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11719,10 +11716,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F319" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11748,10 +11745,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F320" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11777,10 +11774,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F321" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11806,10 +11803,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F322" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11835,10 +11832,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F323" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11864,10 +11861,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F324" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11893,10 +11890,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F325" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11922,10 +11919,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F326" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11951,13 +11948,13 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F327" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -11980,13 +11977,13 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F328" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12009,10 +12006,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F329" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12038,10 +12035,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F330" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12067,10 +12064,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F331" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12096,13 +12093,13 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12125,13 +12122,13 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F333" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G333" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12154,10 +12151,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F334" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12183,10 +12180,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F335" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12212,10 +12209,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F336" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12241,10 +12238,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F337" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12270,10 +12267,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F338" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12299,10 +12296,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F339" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12328,10 +12325,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F340" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12357,10 +12354,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F341" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12386,10 +12383,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F342" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12415,10 +12412,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F343" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12444,10 +12441,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F344" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12473,10 +12470,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F345" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12502,10 +12499,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F346" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12531,10 +12528,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F347" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12560,10 +12557,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F348" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12589,10 +12586,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F349" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12618,10 +12615,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F350" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12647,10 +12644,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12676,10 +12673,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12705,10 +12702,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12734,10 +12731,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12763,10 +12760,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F355" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12792,10 +12789,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F356" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12821,10 +12818,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F357" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12850,10 +12847,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F358" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12879,10 +12876,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F359" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12908,10 +12905,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F360" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12937,10 +12934,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F361" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12966,10 +12963,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F362" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -12995,10 +12992,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F363" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13024,10 +13021,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F364" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13053,13 +13050,13 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F365" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G365" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -13082,13 +13079,13 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F366" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G366" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -13111,10 +13108,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F367" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13140,18 +13137,47 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>701</v>
+      </c>
+      <c r="F368" t="s">
+        <v>702</v>
+      </c>
+      <c r="G368" t="n">
+        <v>10</v>
+      </c>
+      <c r="H368" t="s">
+        <v>4</v>
+      </c>
+      <c r="I368" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1</v>
+      </c>
+      <c r="D369" t="n">
+        <v>368</v>
+      </c>
+      <c r="E369" t="s">
+        <v>701</v>
+      </c>
+      <c r="F369" t="s">
         <v>703</v>
       </c>
-      <c r="F368" t="s">
-        <v>704</v>
-      </c>
-      <c r="G368" t="n">
-        <v>1</v>
-      </c>
-      <c r="H368" t="s">
-        <v>4</v>
-      </c>
-      <c r="I368" t="n">
+      <c r="G369" t="n">
+        <v>1</v>
+      </c>
+      <c r="H369" t="s">
+        <v>4</v>
+      </c>
+      <c r="I369" t="n">
         <v>3</v>
       </c>
     </row>
